--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.15/avg_0.003_scores.xlsx
@@ -106,19 +106,19 @@
     <t>well</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>positive</t>
@@ -1249,25 +1249,25 @@
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.762114537444934</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,25 +1275,25 @@
         <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N14">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,25 +1301,25 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7046153846153846</v>
+        <v>0.6936619718309859</v>
       </c>
       <c r="L15">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="M15">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,25 +1327,25 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6936619718309859</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="L16">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="M16">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1353,25 +1353,25 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6823529411764706</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L17">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="M17">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="10:17">
